--- a/medicine/Mort/Cimetière_de_Bab_al-Saghir/Cimetière_de_Bab_al-Saghir.xlsx
+++ b/medicine/Mort/Cimetière_de_Bab_al-Saghir/Cimetière_de_Bab_al-Saghir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bab_al-Saghir</t>
+          <t>Cimetière_de_Bab_al-Saghir</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Bab al-Saghir (en arabe: cimetière de la Petite Porte;  باب صغير ), est un cimetière musulman de Damas qui se trouve près de la porte du même nom. C'est un lieu de pèlerinage important pour les musulmans, en particulier pour l'islam chiite. Il se trouve au sud-ouest de la mosquée des Omeyyades.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bab_al-Saghir</t>
+          <t>Cimetière_de_Bab_al-Saghir</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Personnalités enterrées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Rouqayya, fille de l'imam Hussain
 Oumm Koulthoum, sœur de l'imam Hussain
